--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Desktop\Bati-Archivos\Codo a Codo 2do Cuatri 2023\NODE\23570\comision23570\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -355,13 +355,109 @@
   </si>
   <si>
     <t>CORREO</t>
+  </si>
+  <si>
+    <t>ssofiabelen99@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia Belen Romero</t>
+  </si>
+  <si>
+    <t>nzanni98@gmail.com</t>
+  </si>
+  <si>
+    <t>Natalia Antonella Zanni</t>
+  </si>
+  <si>
+    <t>melodyamaro@gmail.com</t>
+  </si>
+  <si>
+    <t>Melodu Amaro</t>
+  </si>
+  <si>
+    <t>gabriel.cohen87@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriel Cohen</t>
+  </si>
+  <si>
+    <t>brunalamberti96@gmail.com</t>
+  </si>
+  <si>
+    <t>Bruna Lamberti</t>
+  </si>
+  <si>
+    <t>fede211285@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico Cannas</t>
+  </si>
+  <si>
+    <t>vall.zacarias26@gmail.com</t>
+  </si>
+  <si>
+    <t>Valeria Zacarias</t>
+  </si>
+  <si>
+    <t>gabrielgalicia504@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriel Galicia</t>
+  </si>
+  <si>
+    <t>Catriel Escobar</t>
+  </si>
+  <si>
+    <t>Catriellescobar@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Belen Bellini</t>
+  </si>
+  <si>
+    <t>Guadalupe Aranda</t>
+  </si>
+  <si>
+    <t>Carmen Mariel Décima</t>
+  </si>
+  <si>
+    <t>Elian furman</t>
+  </si>
+  <si>
+    <t>Celeste Rios</t>
+  </si>
+  <si>
+    <t>belenbellini.94@gmail.com</t>
+  </si>
+  <si>
+    <t>guadabelen05@gmail.com</t>
+  </si>
+  <si>
+    <t>cmarieldecima@gmail.com</t>
+  </si>
+  <si>
+    <t>elfafurman@gmail.com</t>
+  </si>
+  <si>
+    <t>lelu01cabal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Bobasso </t>
+  </si>
+  <si>
+    <t>diego.marcospaz@gmail.com</t>
+  </si>
+  <si>
+    <t>silvinaplasense@gmail.com</t>
+  </si>
+  <si>
+    <t>Silvana Garcia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,6 +468,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -389,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -412,22 +529,244 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -661,713 +1000,972 @@
     <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>3</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>4</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>4</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>4</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>4</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>4</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>5</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>5</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>5</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>5</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>5</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>5</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D45" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>6</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
         <v>6</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
         <v>6</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
         <v>6</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>6</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
         <v>6</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
         <v>6</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D53" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>7</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D55" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>7</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
         <v>7</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>7</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>7</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>7</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
         <v>7</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D61" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>8</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
+        <v>8</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>9</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="29">
+        <v>9</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
+        <v>9</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="29">
+        <v>9</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="29">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30">
+        <v>9</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Silvana Garcia</t>
+  </si>
+  <si>
+    <t>paseig06078@gmail.com</t>
+  </si>
+  <si>
+    <t>Patricia Seiguerman</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,6 +773,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -984,17 +993,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="1"/>
@@ -1943,26 +1952,39 @@
         <v>9</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="29">
+        <v>9</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="30">
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="30">
         <v>9</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17" t="s">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="19"/>
+      <c r="E79" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -457,6 +457,30 @@
   </si>
   <si>
     <t>Patricia Seiguerman</t>
+  </si>
+  <si>
+    <t>giabamarketing@gmail.com</t>
+  </si>
+  <si>
+    <t>Rosa Gisela Aballay</t>
+  </si>
+  <si>
+    <t>emapuccio72@gmail.com</t>
+  </si>
+  <si>
+    <t>Ema</t>
+  </si>
+  <si>
+    <t>macarenaamigo@gmail.com</t>
+  </si>
+  <si>
+    <t>Macarena Amigo</t>
+  </si>
+  <si>
+    <t>jeisonnvz@gmail.com</t>
+  </si>
+  <si>
+    <t>Narvae Jeison</t>
   </si>
 </sst>
 </file>
@@ -683,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,6 +800,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1207,11 +1234,11 @@
         <v>2</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
+      <c r="C16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -1221,10 +1248,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -1234,58 +1261,58 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="23" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>3</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="22" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1293,10 +1320,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E23" s="14"/>
     </row>
@@ -1306,10 +1333,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E24" s="14"/>
     </row>
@@ -1319,10 +1346,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -1331,11 +1358,11 @@
         <v>3</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
+      <c r="C26" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E26" s="14"/>
     </row>
@@ -1345,71 +1372,71 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>3</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="23" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D30" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>4</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="22" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -1417,10 +1444,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E33" s="14"/>
     </row>
@@ -1430,10 +1457,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E34" s="14"/>
     </row>
@@ -1443,10 +1470,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -1456,71 +1483,71 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>4</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="23" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>5</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="22" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
@@ -1528,10 +1555,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E42" s="14"/>
     </row>
@@ -1541,10 +1568,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E43" s="14"/>
     </row>
@@ -1554,84 +1581,84 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
         <v>5</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="23" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D48" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>6</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="22" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
@@ -1639,10 +1666,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E51" s="14"/>
     </row>
@@ -1652,84 +1679,84 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
         <v>6</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="23" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D56" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>7</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="22" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>7</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>7</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
@@ -1737,10 +1764,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E59" s="14"/>
     </row>
@@ -1750,213 +1777,213 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
         <v>7</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="20"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>8</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="11"/>
+      <c r="A63" s="12">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>7</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>8</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>8</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>8</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="14"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="12">
         <v>8</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+        <v>114</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
         <v>8</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
         <v>8</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D74" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="27">
         <v>9</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="28" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D76" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="29">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="29">
-        <v>9</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="29">
-        <v>9</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
-        <v>9</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>9</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>143</v>
+      <c r="C77" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E77" s="14"/>
     </row>
@@ -1965,26 +1992,78 @@
         <v>9</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="29">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>9</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="29">
+        <v>9</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
+        <v>9</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="30">
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="30">
         <v>9</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17" t="s">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D83" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E83" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -481,22 +481,64 @@
   </si>
   <si>
     <t>Narvae Jeison</t>
+  </si>
+  <si>
+    <t>desca5b@gmail.com</t>
+  </si>
+  <si>
+    <t>Schmitz Kevin</t>
+  </si>
+  <si>
+    <t>fariasrodrigoleonel@gmail.com</t>
+  </si>
+  <si>
+    <t>Leonel Farias</t>
+  </si>
+  <si>
+    <t>guido.gattas@gmail.com</t>
+  </si>
+  <si>
+    <t>Guido Gattás</t>
+  </si>
+  <si>
+    <t>giangreco.en@gmail.com</t>
+  </si>
+  <si>
+    <t>Enzo Lucas Giangreco</t>
+  </si>
+  <si>
+    <t>kevin.viale.0@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin Viale</t>
+  </si>
+  <si>
+    <t>Joel Vladimir Mamani Espinal</t>
+  </si>
+  <si>
+    <t>joelkevin1320@gmail.com</t>
+  </si>
+  <si>
+    <t>jolelina@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jorgelina</t>
+  </si>
+  <si>
+    <t>agosti400@gmail.com</t>
+  </si>
+  <si>
+    <t>Christian Gonzalez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -536,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -703,106 +745,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,1050 +1046,1154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="23" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="22" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="25" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="25" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D17" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="23" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="22" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>3</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="25" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D27" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="23" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>4</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>4</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>4</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>4</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>4</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="23" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>5</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="22" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>5</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>5</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>5</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>5</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="25" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D48" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>5</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>5</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>5</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="23" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>6</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="22" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>6</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>6</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>6</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>6</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15">
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>6</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="23" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D61" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>7</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="22" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D63" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>7</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>7</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>7</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>7</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="25" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D68" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>7</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>7</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
         <v>7</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="23" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D71" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>8</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>8</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>8</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>8</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="5" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="15"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D77" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>8</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D78" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>8</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>8</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="4" t="s">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D80" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
         <v>8</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="27">
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
         <v>9</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="28" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D83" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>9</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="26" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D84" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>9</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="26" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D85" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>9</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="26" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="15"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D87" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>9</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="26" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D88" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="29">
+      <c r="E88" s="15"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>9</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="31" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D89" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="29">
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>9</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D90" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="30">
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>9</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D91" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E83" s="19"/>
+      <c r="E91" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$71</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -529,6 +529,48 @@
   </si>
   <si>
     <t>Christian Gonzalez</t>
+  </si>
+  <si>
+    <t>gaia.marianela@gmail.com</t>
+  </si>
+  <si>
+    <t>Marianela Ruth Gaia</t>
+  </si>
+  <si>
+    <t>gabriellole@hotmail.com</t>
+  </si>
+  <si>
+    <t>Gabriel Laulhe</t>
+  </si>
+  <si>
+    <t>stancato.m@gmail.com</t>
+  </si>
+  <si>
+    <t>Stancato Matias</t>
+  </si>
+  <si>
+    <t>kevincarballido@gmail.com</t>
+  </si>
+  <si>
+    <t>Carballido Kevin</t>
+  </si>
+  <si>
+    <t>sergiocalbo86@gmail.com</t>
+  </si>
+  <si>
+    <t>Calbo Mancilla Sergio Ismael</t>
+  </si>
+  <si>
+    <t>abigailmendozx@gmail.com</t>
+  </si>
+  <si>
+    <t>Georgina Abigail Mendoza</t>
+  </si>
+  <si>
+    <t>agus22dominguez@gmail.com</t>
+  </si>
+  <si>
+    <t>AgustinaDominguez</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2195,6 +2237,98 @@
       </c>
       <c r="E91" s="17"/>
     </row>
+    <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>10</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>AgustinaDominguez</t>
+  </si>
+  <si>
+    <t>silvioj.burgos@gmail.com</t>
+  </si>
+  <si>
+    <t>Silvio Burgos</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2047,10 +2053,10 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -2060,10 +2066,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E77" s="15"/>
     </row>
@@ -2073,78 +2079,78 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="8">
         <v>8</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>8</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
         <v>8</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>9</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="7" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="15"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
@@ -2152,10 +2158,10 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E85" s="15"/>
     </row>
@@ -2164,11 +2170,11 @@
         <v>9</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>167</v>
+      <c r="C86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E86" s="15"/>
     </row>
@@ -2177,11 +2183,11 @@
         <v>9</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>137</v>
+      <c r="C87" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="E87" s="15"/>
     </row>
@@ -2191,10 +2197,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -2203,11 +2209,11 @@
         <v>9</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>143</v>
+      <c r="C89" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2216,53 +2222,53 @@
         <v>9</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>9</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>10</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="1" t="s">
+      <c r="B94" s="2"/>
+      <c r="C94" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <v>10</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="15"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
@@ -2270,10 +2276,10 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E95" s="15"/>
     </row>
@@ -2283,10 +2289,10 @@
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E96" s="15"/>
     </row>
@@ -2296,10 +2302,10 @@
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E97" s="15"/>
     </row>
@@ -2309,25 +2315,38 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
         <v>10</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1" t="s">
+      <c r="B100" s="3"/>
+      <c r="C100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="17"/>
+      <c r="E100" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>Silvio Burgos</t>
+  </si>
+  <si>
+    <t>jeanpierox@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jean Piero Marcon</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D97" sqref="C97:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2301,11 +2307,11 @@
         <v>10</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>179</v>
+      <c r="C97" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="E97" s="15"/>
     </row>
@@ -2315,10 +2321,10 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E98" s="15"/>
     </row>
@@ -2328,25 +2334,38 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
         <v>10</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E100" s="17"/>
+      <c r="E101" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -300,12 +300,6 @@
     <t>Walter Grava</t>
   </si>
   <si>
-    <t>caucota@gmail.com</t>
-  </si>
-  <si>
-    <t>Federic Caucota</t>
-  </si>
-  <si>
     <t>celesteerrodriguez@gmail.com</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>agus22dominguez@gmail.com</t>
   </si>
   <si>
-    <t>AgustinaDominguez</t>
-  </si>
-  <si>
     <t>silvioj.burgos@gmail.com</t>
   </si>
   <si>
@@ -583,6 +574,27 @@
   </si>
   <si>
     <t>Jean Piero Marcon</t>
+  </si>
+  <si>
+    <t>dgflorenciagonzalez@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florencia Gonzalez </t>
+  </si>
+  <si>
+    <t>Agustina Dominguez</t>
+  </si>
+  <si>
+    <t>vicky.b.i@hotmail.com</t>
+  </si>
+  <si>
+    <t>Victoria Bugallo Iribarne</t>
+  </si>
+  <si>
+    <t>nicolasbilic@gmail.com</t>
+  </si>
+  <si>
+    <t>Bilic Nicolás</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D97" sqref="C97:D97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1118,19 +1130,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,10 +1216,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -1315,10 +1327,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -1328,10 +1340,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="15"/>
     </row>
@@ -1452,10 +1464,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -1563,10 +1575,10 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -1628,10 +1640,10 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E41" s="17"/>
     </row>
@@ -1674,10 +1686,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E45" s="15"/>
     </row>
@@ -1699,11 +1711,11 @@
         <v>5</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>92</v>
+      <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -1712,11 +1724,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="4" t="s">
-        <v>148</v>
+      <c r="C48" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -1752,10 +1764,10 @@
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E51" s="17"/>
     </row>
@@ -1785,10 +1797,10 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -1798,10 +1810,10 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E55" s="15"/>
     </row>
@@ -1824,10 +1836,10 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -1837,10 +1849,10 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -1876,10 +1888,10 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E61" s="17"/>
     </row>
@@ -1948,10 +1960,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -1961,10 +1973,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -1987,10 +1999,10 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -2020,10 +2032,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E73" s="14"/>
     </row>
@@ -2033,10 +2045,10 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E74" s="20"/>
     </row>
@@ -2046,10 +2058,10 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E75" s="15"/>
     </row>
@@ -2059,10 +2071,10 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -2072,10 +2084,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E77" s="15"/>
     </row>
@@ -2085,10 +2097,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" s="15"/>
     </row>
@@ -2098,10 +2110,10 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E79" s="15"/>
     </row>
@@ -2111,10 +2123,10 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="15"/>
     </row>
@@ -2124,10 +2136,10 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E81" s="15"/>
     </row>
@@ -2137,10 +2149,10 @@
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="17"/>
     </row>
@@ -2151,10 +2163,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E84" s="14"/>
     </row>
@@ -2164,10 +2176,10 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E85" s="15"/>
     </row>
@@ -2177,10 +2189,10 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E86" s="15"/>
     </row>
@@ -2189,11 +2201,11 @@
         <v>9</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>167</v>
+      <c r="C87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E87" s="15"/>
     </row>
@@ -2202,11 +2214,11 @@
         <v>9</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>137</v>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -2216,10 +2228,10 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2228,11 +2240,11 @@
         <v>9</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>143</v>
+      <c r="C90" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -2241,53 +2253,53 @@
         <v>9</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>9</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
-        <v>9</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
         <v>10</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E94" s="14"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <v>10</v>
-      </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E95" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
@@ -2295,10 +2307,10 @@
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E96" s="15"/>
     </row>
@@ -2308,10 +2320,10 @@
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" s="15"/>
     </row>
@@ -2321,7 +2333,7 @@
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>179</v>
@@ -2333,11 +2345,11 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>173</v>
+      <c r="C99" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E99" s="15"/>
     </row>
@@ -2347,25 +2359,51 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
-        <v>10</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="17"/>
+      <c r="E103" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>Bilic Nicolás</t>
+  </si>
+  <si>
+    <t>cemuse@hotmail.com.ar</t>
+  </si>
+  <si>
+    <t>Claudio Esteban| Muse Vallejo</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,9 +897,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="C6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1208,33 +1211,33 @@
       <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="C7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="15"/>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1242,58 +1245,58 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="16" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -1301,10 +1304,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -1314,10 +1317,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -1327,10 +1330,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -1340,10 +1343,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E17" s="15"/>
     </row>
@@ -1353,10 +1356,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>150</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E18" s="15"/>
     </row>
@@ -1366,10 +1369,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E19" s="15"/>
     </row>
@@ -1379,58 +1382,58 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>3</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="13" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1438,10 +1441,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -1451,10 +1454,10 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E26" s="15"/>
     </row>
@@ -1464,10 +1467,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>143</v>
+        <v>79</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -1477,10 +1480,10 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="E28" s="15"/>
     </row>
@@ -1490,10 +1493,10 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E29" s="15"/>
     </row>
@@ -1503,58 +1506,58 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>3</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="16" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="13" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
@@ -1562,10 +1565,10 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="4" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -1575,10 +1578,10 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>157</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -1588,10 +1591,10 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
+        <v>158</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -1601,10 +1604,10 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -1614,10 +1617,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -1627,58 +1630,58 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="16" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>5</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="13" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
@@ -1686,10 +1689,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E45" s="15"/>
     </row>
@@ -1699,10 +1702,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>8</v>
+        <v>160</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="E46" s="15"/>
     </row>
@@ -1711,11 +1714,11 @@
         <v>5</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>189</v>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="15"/>
     </row>
@@ -1724,11 +1727,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>145</v>
+      <c r="C48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -1737,11 +1740,11 @@
         <v>5</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>50</v>
+      <c r="C49" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -1751,69 +1754,69 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>5</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="16" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>6</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="13" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>6</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>6</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>162</v>
+      <c r="C55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E55" s="15"/>
     </row>
@@ -1822,11 +1825,11 @@
         <v>6</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -1835,11 +1838,11 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>151</v>
+      <c r="C57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -1848,11 +1851,11 @@
         <v>6</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>94</v>
+      <c r="C58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -1862,10 +1865,10 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E59" s="15"/>
     </row>
@@ -1875,58 +1878,58 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>6</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="16" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D62" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <v>7</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="13" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>7</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
@@ -1934,10 +1937,10 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E65" s="15"/>
     </row>
@@ -1947,10 +1950,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -1960,10 +1963,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -1972,11 +1975,11 @@
         <v>7</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>147</v>
+      <c r="C68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -1985,11 +1988,11 @@
         <v>7</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>76</v>
+      <c r="C69" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -1999,58 +2002,58 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
         <v>7</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="16" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
         <v>8</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>8</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" s="20"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
@@ -2058,12 +2061,12 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
@@ -2071,10 +2074,10 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -2084,10 +2087,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E77" s="15"/>
     </row>
@@ -2097,10 +2100,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E78" s="15"/>
     </row>
@@ -2110,78 +2113,78 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80" s="8">
         <v>8</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>8</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="15"/>
+    </row>
+    <row r="82" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
         <v>8</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>9</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="7" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>9</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="15"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
@@ -2189,10 +2192,10 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" s="15"/>
     </row>
@@ -2201,11 +2204,11 @@
         <v>9</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>165</v>
+      <c r="C87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E87" s="15"/>
     </row>
@@ -2215,10 +2218,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -2227,11 +2230,11 @@
         <v>9</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>135</v>
+      <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2241,10 +2244,10 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -2253,11 +2256,11 @@
         <v>9</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>141</v>
+      <c r="C91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -2266,64 +2269,64 @@
         <v>9</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>9</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
         <v>10</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="2"/>
+      <c r="C96" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>10</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="15"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>10</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>184</v>
+      <c r="C97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E97" s="15"/>
     </row>
@@ -2332,11 +2335,11 @@
         <v>10</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>179</v>
+      <c r="C98" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="E98" s="15"/>
     </row>
@@ -2345,11 +2348,11 @@
         <v>10</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>182</v>
+      <c r="C99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E99" s="15"/>
     </row>
@@ -2358,11 +2361,11 @@
         <v>10</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>177</v>
+      <c r="C100" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E100" s="15"/>
     </row>
@@ -2372,10 +2375,10 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E101" s="15"/>
     </row>
@@ -2385,25 +2388,38 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
         <v>10</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E103" s="17"/>
+      <c r="E104" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -601,6 +601,18 @@
   </si>
   <si>
     <t>Claudio Esteban| Muse Vallejo</t>
+  </si>
+  <si>
+    <t>diego_2790@hotmail.com</t>
+  </si>
+  <si>
+    <t>Diego Peralta</t>
+  </si>
+  <si>
+    <t>fabialarcon96@gmail.com</t>
+  </si>
+  <si>
+    <t>Fabian Alarcon</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="C6:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D101" sqref="C98:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1963,10 +1975,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>56</v>
+        <v>194</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -1976,10 +1988,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -1988,11 +2000,11 @@
         <v>7</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>147</v>
+      <c r="C69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -2001,11 +2013,11 @@
         <v>7</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>76</v>
+      <c r="C70" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -2015,58 +2027,58 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
         <v>7</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="16" t="s">
+      <c r="B73" s="3"/>
+      <c r="C73" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>8</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>8</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="20"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
@@ -2074,12 +2086,12 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
@@ -2087,10 +2099,10 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="E77" s="15"/>
     </row>
@@ -2100,10 +2112,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E78" s="15"/>
     </row>
@@ -2113,10 +2125,10 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E79" s="15"/>
     </row>
@@ -2126,78 +2138,78 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81" s="8">
         <v>8</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
         <v>8</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>9</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="7" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
@@ -2205,10 +2217,10 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" s="15"/>
     </row>
@@ -2217,11 +2229,11 @@
         <v>9</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>165</v>
+      <c r="C88" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -2231,10 +2243,10 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2243,11 +2255,11 @@
         <v>9</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>135</v>
+      <c r="C90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -2257,10 +2269,10 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -2269,11 +2281,11 @@
         <v>9</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>141</v>
+      <c r="C92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E92" s="15"/>
     </row>
@@ -2282,64 +2294,64 @@
         <v>9</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
         <v>9</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
         <v>10</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="1" t="s">
+      <c r="B97" s="2"/>
+      <c r="C97" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E96" s="14"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>10</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E97" s="15"/>
+      <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>10</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>184</v>
+      <c r="C98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E98" s="15"/>
     </row>
@@ -2349,10 +2361,10 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E99" s="15"/>
     </row>
@@ -2361,11 +2373,11 @@
         <v>10</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>182</v>
+      <c r="C100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E100" s="15"/>
     </row>
@@ -2375,10 +2387,10 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E101" s="15"/>
     </row>
@@ -2387,11 +2399,11 @@
         <v>10</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>171</v>
+      <c r="C102" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -2401,25 +2413,51 @@
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9">
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
         <v>10</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E104" s="17"/>
+      <c r="E106" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$74</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -613,13 +613,19 @@
   </si>
   <si>
     <t>Fabian Alarcon</t>
+  </si>
+  <si>
+    <t>Jose Rafael Serrano Bacca</t>
+  </si>
+  <si>
+    <t>serranojose.ar@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -643,6 +649,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -846,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,6 +922,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1127,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D101" sqref="C98:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1850,11 +1868,11 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>14</v>
+      <c r="C57" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -1863,11 +1881,11 @@
         <v>6</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>151</v>
+      <c r="C58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -1876,11 +1894,11 @@
         <v>6</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>94</v>
+      <c r="C59" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E59" s="15"/>
     </row>
@@ -1890,10 +1908,10 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -1903,58 +1921,58 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
         <v>6</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="16" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>7</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="13" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>7</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
@@ -1962,10 +1980,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -1975,10 +1993,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>193</v>
+        <v>41</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -1988,10 +2006,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>56</v>
+        <v>194</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -2001,10 +2019,10 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -2013,11 +2031,11 @@
         <v>7</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>147</v>
+      <c r="C70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -2026,11 +2044,11 @@
         <v>7</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>76</v>
+      <c r="C71" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -2040,58 +2058,58 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
         <v>7</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="16" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D74" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
         <v>8</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>8</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="20"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
@@ -2099,12 +2117,12 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
@@ -2112,10 +2130,10 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="E78" s="15"/>
     </row>
@@ -2125,10 +2143,10 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E79" s="15"/>
     </row>
@@ -2138,10 +2156,10 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E80" s="15"/>
     </row>
@@ -2151,78 +2169,78 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82" s="8">
         <v>8</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>8</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9">
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
         <v>8</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
         <v>9</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="7" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D87" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
@@ -2230,10 +2248,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -2242,11 +2260,11 @@
         <v>9</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>165</v>
+      <c r="C89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2256,10 +2274,10 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -2268,11 +2286,11 @@
         <v>9</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>135</v>
+      <c r="C91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -2282,10 +2300,10 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E92" s="15"/>
     </row>
@@ -2294,11 +2312,11 @@
         <v>9</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>141</v>
+      <c r="C93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E93" s="15"/>
     </row>
@@ -2307,53 +2325,53 @@
         <v>9</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="15"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
         <v>9</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>10</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="2"/>
+      <c r="C98" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="14"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
-        <v>10</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E98" s="15"/>
+      <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
@@ -2361,10 +2379,10 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E99" s="15"/>
     </row>
@@ -2374,10 +2392,10 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E100" s="15"/>
     </row>
@@ -2387,10 +2405,10 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E101" s="15"/>
     </row>
@@ -2399,11 +2417,11 @@
         <v>10</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>182</v>
+      <c r="C102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -2412,11 +2430,11 @@
         <v>10</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>177</v>
+      <c r="C103" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E103" s="15"/>
     </row>
@@ -2426,10 +2444,10 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -2439,25 +2457,38 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
         <v>10</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E106" s="17"/>
+      <c r="E107" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1757,11 +1757,11 @@
         <v>5</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>189</v>
+      <c r="C48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -1770,11 +1770,11 @@
         <v>5</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>145</v>
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -1783,11 +1783,11 @@
         <v>5</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>50</v>
+      <c r="C50" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="E50" s="15"/>
     </row>
@@ -1797,69 +1797,69 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <v>5</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="16" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>6</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="13" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>6</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>6</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>162</v>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -1868,11 +1868,11 @@
         <v>6</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>198</v>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -1881,11 +1881,11 @@
         <v>6</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>14</v>
+      <c r="C58" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -1894,11 +1894,11 @@
         <v>6</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>151</v>
+      <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E59" s="15"/>
     </row>
@@ -1907,11 +1907,11 @@
         <v>6</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>94</v>
+      <c r="C60" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -1921,10 +1921,10 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E61" s="15"/>
     </row>
@@ -1934,58 +1934,58 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="15"/>
-    </row>
-    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
         <v>6</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="16" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="18"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>7</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="13" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
@@ -1993,10 +1993,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E67" s="15"/>
     </row>
@@ -2006,10 +2006,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>193</v>
+        <v>41</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E68" s="15"/>
     </row>
@@ -2019,10 +2019,10 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>56</v>
+        <v>194</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -2032,10 +2032,10 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -2044,11 +2044,11 @@
         <v>7</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>147</v>
+      <c r="C71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E71" s="15"/>
     </row>

--- a/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
+++ b/Grupos del proyecto integrador - Curso Node JS (23570).xlsx
@@ -15,14 +15,14 @@
     <sheet name="GRUPOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GRUPOS!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>mailencastellarin@gmail.com</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>serranojose.ar@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia van Gelderen</t>
+  </si>
+  <si>
+    <t>sofivg@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,6 +934,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2030,7 @@
       <c r="C69" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E69" s="15"/>
@@ -2032,10 +2041,10 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>56</v>
+        <v>199</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -2045,10 +2054,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -2058,10 +2067,10 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>164</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -2071,58 +2080,58 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
         <v>7</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="16" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="18"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
         <v>8</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="20"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
@@ -2130,12 +2139,12 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
@@ -2143,10 +2152,10 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="E79" s="15"/>
     </row>
@@ -2156,10 +2165,10 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E80" s="15"/>
     </row>
@@ -2169,10 +2178,10 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E81" s="15"/>
     </row>
@@ -2182,78 +2191,78 @@
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83" s="8">
         <v>8</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>8</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="15"/>
+    </row>
+    <row r="85" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="E85" s="15"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>8</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
         <v>9</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="7" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="15"/>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
@@ -2261,10 +2270,10 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2273,11 +2282,11 @@
         <v>9</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>165</v>
+      <c r="C90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E90" s="15"/>
     </row>
@@ -2287,10 +2296,10 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -2299,11 +2308,11 @@
         <v>9</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>135</v>
+      <c r="C92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E92" s="15"/>
     </row>
@@ -2313,10 +2322,10 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E93" s="15"/>
     </row>
@@ -2325,11 +2334,11 @@
         <v>9</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>141</v>
+      <c r="C94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E94" s="15"/>
     </row>
@@ -2338,53 +2347,53 @@
         <v>9</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="15"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
         <v>9</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
         <v>10</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="2"/>
+      <c r="C99" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>10</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E99" s="15"/>
+      <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
@@ -2392,10 +2401,10 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E100" s="15"/>
     </row>
@@ -2405,10 +2414,10 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E101" s="15"/>
     </row>
@@ -2418,10 +2427,10 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -2430,11 +2439,11 @@
         <v>10</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>182</v>
+      <c r="C103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E103" s="15"/>
     </row>
@@ -2443,11 +2452,11 @@
         <v>10</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>177</v>
+      <c r="C104" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -2457,10 +2466,10 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E105" s="15"/>
     </row>
@@ -2470,25 +2479,38 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
         <v>10</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1" t="s">
+      <c r="B108" s="3"/>
+      <c r="C108" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E107" s="17"/>
+      <c r="E108" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
